--- a/Excel_profile_templates/Profile Template - CC Practitioner Admission details list.xlsx
+++ b/Excel_profile_templates/Profile Template - CC Practitioner Admission details list.xlsx
@@ -19,19 +19,19 @@
     <t>Select</t>
   </si>
   <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Not Used</t>
+  </si>
+  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Not Used</t>
   </si>
   <si>
     <t>Card.</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -597,12 +597,6 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u/>
-      <sz val="8.0"/>
-      <color rgb="FF005EB8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <b/>
       <sz val="8.0"/>
       <color rgb="FF474747"/>
@@ -645,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -686,19 +680,16 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -749,7 +740,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -785,7 +776,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#id","Id")</f>
@@ -803,7 +794,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/resource.html#Meta","Meta")</f>
@@ -821,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -839,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -857,7 +848,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/narrative.html#Narrative","Narrative")</f>
@@ -875,7 +866,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/resource.html","Resource")</f>
@@ -893,13 +884,13 @@
         <v>25</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="13" t="str">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-NHSCommunication-1","Extension-CareConnect-NHSCommunication-1")</f>
         <v>Extension-CareConnect-NHSCommunication-1</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -911,7 +902,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -929,7 +920,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="9" t="str">
         <f t="shared" ref="D11:D12" si="1">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -947,7 +938,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="9" t="str">
         <f t="shared" si="1"/>
@@ -965,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -983,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1001,7 +992,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1019,7 +1010,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1037,7 +1028,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -1055,9 +1046,9 @@
         <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="16" t="str">
+        <v>4</v>
+      </c>
+      <c r="D18" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -1069,9 +1060,9 @@
       <c r="A19" s="7"/>
       <c r="B19" s="5"/>
       <c r="C19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="17" t="str">
+        <v>4</v>
+      </c>
+      <c r="D19" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
@@ -1085,7 +1076,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -1103,7 +1094,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1121,7 +1112,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -1139,7 +1130,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1157,7 +1148,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1175,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -1193,9 +1184,9 @@
         <v>14</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="16" t="str">
+        <v>4</v>
+      </c>
+      <c r="D26" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -1207,9 +1198,9 @@
       <c r="A27" s="7"/>
       <c r="B27" s="5"/>
       <c r="C27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="17" t="str">
+        <v>4</v>
+      </c>
+      <c r="D27" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
@@ -1223,7 +1214,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -1241,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#humanname","HumanName")</f>
@@ -1259,7 +1250,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1277,7 +1268,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="9" t="str">
         <f t="shared" ref="D31:D35" si="2">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1295,7 +1286,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1313,7 +1304,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1331,7 +1322,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1349,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1367,7 +1358,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -1385,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="9" t="str">
         <f t="shared" ref="D37:D38" si="3">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -1403,7 +1394,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="9" t="str">
         <f t="shared" si="3"/>
@@ -1421,7 +1412,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#contactpoint","ContactPoint")</f>
@@ -1439,7 +1430,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1457,7 +1448,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1475,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1493,7 +1484,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#positiveint","positiveInt")</f>
@@ -1511,7 +1502,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -1529,7 +1520,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" s="9" t="str">
         <f t="shared" ref="D45:D46" si="4">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -1547,7 +1538,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1565,7 +1556,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#address","Address")</f>
@@ -1583,7 +1574,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="9" t="str">
         <f t="shared" ref="D48:D49" si="5">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1601,7 +1592,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" s="9" t="str">
         <f t="shared" si="5"/>
@@ -1619,7 +1610,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" s="9" t="str">
         <f t="shared" ref="D50:D56" si="6">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1637,7 +1628,7 @@
         <v>25</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" s="9" t="str">
         <f t="shared" si="6"/>
@@ -1655,7 +1646,7 @@
         <v>14</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" s="9" t="str">
         <f t="shared" si="6"/>
@@ -1673,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" s="9" t="str">
         <f t="shared" si="6"/>
@@ -1691,7 +1682,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" s="9" t="str">
         <f t="shared" si="6"/>
@@ -1709,7 +1700,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" s="9" t="str">
         <f t="shared" si="6"/>
@@ -1727,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" s="9" t="str">
         <f t="shared" si="6"/>
@@ -1745,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -1763,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" s="9" t="str">
         <f t="shared" ref="D58:D59" si="7">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -1781,7 +1772,7 @@
         <v>14</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" s="9" t="str">
         <f t="shared" si="7"/>
@@ -1799,7 +1790,7 @@
         <v>14</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1817,7 +1808,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#date","Date")</f>
@@ -1835,7 +1826,7 @@
         <v>25</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#attachment","Attachment")</f>
@@ -1853,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" s="9" t="str">
         <f t="shared" ref="D63:D64" si="8">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1871,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" s="9" t="str">
         <f t="shared" si="8"/>
@@ -1889,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#base64binary","base64Binary")</f>
@@ -1907,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1925,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#unsignedint","unsignedInt")</f>
@@ -1943,7 +1934,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#base64binary","base64Binary")</f>
@@ -1961,7 +1952,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1979,7 +1970,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -1997,7 +1988,7 @@
         <v>25</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
@@ -2015,7 +2006,7 @@
         <v>25</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -2033,7 +2024,7 @@
         <v>25</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2051,7 +2042,7 @@
         <v>14</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -2069,7 +2060,7 @@
         <v>14</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -2087,7 +2078,7 @@
         <v>14</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -2105,7 +2096,7 @@
         <v>14</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2123,7 +2114,7 @@
         <v>14</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -2141,9 +2132,9 @@
         <v>14</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="16" t="str">
+        <v>4</v>
+      </c>
+      <c r="D79" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -2155,9 +2146,9 @@
       <c r="A80" s="7"/>
       <c r="B80" s="5"/>
       <c r="C80" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="17" t="str">
+        <v>4</v>
+      </c>
+      <c r="D80" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
@@ -2171,7 +2162,7 @@
         <v>40</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -2189,7 +2180,7 @@
         <v>25</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -2207,7 +2198,7 @@
         <v>14</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -2225,7 +2216,7 @@
         <v>14</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2243,7 +2234,7 @@
         <v>14</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -2261,7 +2252,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2279,7 +2270,7 @@
         <v>14</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -2297,7 +2288,7 @@
         <v>14</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2315,7 +2306,7 @@
         <v>14</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -2333,7 +2324,7 @@
         <v>14</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" s="9" t="str">
         <f t="shared" ref="D90:D91" si="9">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -2351,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" s="9" t="str">
         <f t="shared" si="9"/>
@@ -2369,9 +2360,9 @@
         <v>14</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="16" t="str">
+        <v>4</v>
+      </c>
+      <c r="D92" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -2383,9 +2374,9 @@
       <c r="A93" s="7"/>
       <c r="B93" s="5"/>
       <c r="C93" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="17" t="str">
+        <v>4</v>
+      </c>
+      <c r="D93" s="16" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
@@ -2399,7 +2390,7 @@
         <v>14</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2417,7 +2408,7 @@
         <v>14</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" s="9" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2428,11 +2419,11 @@
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
@@ -3783,22 +3774,22 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
